--- a/01_Logger/01_Basic_Logger/02_Mechanics/BOM.xlsx
+++ b/01_Logger/01_Basic_Logger/02_Mechanics/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A313C3-B55B-4E55-B31B-8A63FB17D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532F510E-23CC-476F-8D68-4DD265220CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Conductivity: Atlas Scientific K1.0 incl. adapter board</t>
   </si>
   <si>
-    <t>Nut M18x1 ('Sechskant-Gegenmutter')</t>
-  </si>
-  <si>
     <t>Pressure valve, BlueRobotics PRV-R1, incl. O-rings and nut</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>End cap, blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut M18x1 ('Sechskant-Gegenmutter') GM 181 Schlüsselweite &lt;= 22mm </t>
   </si>
 </sst>
 </file>
@@ -464,17 +464,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.3984375" customWidth="1"/>
+    <col min="1" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="69" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,14 +485,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -536,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -558,12 +558,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -607,12 +607,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -623,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -656,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -697,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
